--- a/data/Capricoin/Capricoin20190101.xlsx
+++ b/data/Capricoin/Capricoin20190101.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="181">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182">
